--- a/data/trans_camb/P6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 18,01</t>
+          <t>-5,95; 6,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 9,52</t>
+          <t>-8,55; 1,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 2,98</t>
+          <t>-9,33; 1,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,89</t>
+          <t>-5,13; 4,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 7,25</t>
+          <t>-6,06; 2,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,95</t>
+          <t>-3,56; 5,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 9,87</t>
+          <t>-3,77; 4,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,12</t>
+          <t>-5,14; 1,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,9</t>
+          <t>-4,22; 2,62</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>66,59%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>-38,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>-45,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>-23,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>-30,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>-4,32%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 552,52</t>
+          <t>-71,93; 302,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 279,74</t>
+          <t>-86,04; 129,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,27; 101,23</t>
+          <t>-84,44; 86,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 128,25</t>
+          <t>-75,22; 244,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 194,74</t>
+          <t>-76,4; 204,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 179,78</t>
+          <t>-46,15; 376,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 264,83</t>
+          <t>-55,02; 152,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 156,81</t>
+          <t>-67,27; 48,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 101,41</t>
+          <t>-52,57; 101,23</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>2,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,91</t>
+          <t>-3,27; 4,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 9,75</t>
+          <t>-1,61; 6,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,54</t>
+          <t>-0,78; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 5,48</t>
+          <t>-4,45; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,08</t>
+          <t>-3,43; 5,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 8,9</t>
+          <t>-2,15; 6,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,23</t>
+          <t>-2,63; 3,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,81</t>
+          <t>-1,5; 4,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,47</t>
+          <t>-0,75; 5,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>30,73%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 145,37</t>
+          <t>-41,34; 134,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,1; 206,39</t>
+          <t>-22,1; 168,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 183,25</t>
+          <t>-12,49; 180,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 64,42</t>
+          <t>-37,96; 66,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 117,1</t>
+          <t>-26,97; 71,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 104,65</t>
+          <t>-18,63; 84,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 75,43</t>
+          <t>-27,72; 58,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,0; 121,46</t>
+          <t>-16,18; 72,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,35; 106,02</t>
+          <t>-7,44; 83,21</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>2,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 8,09</t>
+          <t>-6,12; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 9,36</t>
+          <t>-3,61; 6,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,29</t>
+          <t>-3,5; 6,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 7,59</t>
+          <t>-5,76; 4,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 12,06</t>
+          <t>-4,89; 4,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 12,23</t>
+          <t>-2,28; 7,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,61</t>
+          <t>-4,47; 2,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 9,48</t>
+          <t>-2,55; 4,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 9,69</t>
+          <t>-1,46; 5,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>-7,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>57,52%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>-9,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>101,17%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>72,21%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>79,3%</t>
+          <t>22,74%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 117,25</t>
+          <t>-50,99; 71,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 139,1</t>
+          <t>-29,75; 107,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,25; 136,32</t>
+          <t>-28,82; 107,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 122,87</t>
+          <t>-46,23; 61,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,17; 190,84</t>
+          <t>-36,25; 70,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,5; 195,13</t>
+          <t>-17,67; 105,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 93,4</t>
+          <t>-39,03; 34,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,91; 138,71</t>
+          <t>-21,98; 60,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>32,17; 135,73</t>
+          <t>-11,97; 69,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,59</t>
+          <t>-2,34; 4,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,56</t>
+          <t>-3,43; 3,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,48</t>
+          <t>-2,71; 3,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,02</t>
+          <t>-4,61; 1,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,62</t>
+          <t>-1,64; 2,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,97</t>
+          <t>-3,35; 1,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,25</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>-12,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>64,82%</t>
+          <t>-22,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>69,53%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,29; 115,29</t>
+          <t>-34,64; 86,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,44; 138,17</t>
+          <t>-49,66; 59,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,37; 104,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 63,13</t>
+          <t>-32,28; 48,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,99; 109,38</t>
+          <t>-52,89; 30,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,75; 106,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,97; 69,14</t>
+          <t>-22,14; 48,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,51; 103,65</t>
+          <t>-45,62; 23,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>33,5; 92,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 2,72</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 2,86</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 3,84</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 2,19</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 1,93</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 4,7</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 1,77</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 1,79</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27,64%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>29,94%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>28,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-20,15; 46,79</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-17,42; 51,19</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 66,9</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-20,93; 30,93</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-21,15; 26,41</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 64,45</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,66; 26,21</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; 26,8</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 52,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
